--- a/QTNext/src/test/resources/Automation Test Sample.xlsx
+++ b/QTNext/src/test/resources/Automation Test Sample.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F9105D23-4FE0-49B1-9F46-8D6ED3BCCFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seshu\git\QTNext\QTNext\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A204698-1A7E-4542-9716-31F46D5A3008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{B2F200D8-E270-4BCF-B583-C9AE4D01EF03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B2F200D8-E270-4BCF-B583-C9AE4D01EF03}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Course" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="PRA" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="D34:J38"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="175">
   <si>
     <t>Subject Category</t>
   </si>
@@ -557,6 +561,9 @@
   </si>
   <si>
     <t>57:44</t>
+  </si>
+  <si>
+    <t>C:\Users\seshu\git\QTNext\QTNext\src\test\resources\QT Next Mock Image.png</t>
   </si>
 </sst>
 </file>
@@ -965,7 +972,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>79</v>
@@ -1048,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1068,7 +1075,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1126,10 +1133,10 @@
         <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>83</v>
@@ -1152,10 +1159,10 @@
         <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>108</v>
@@ -1171,7 +1178,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1235,10 +1242,10 @@
         <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>85</v>
@@ -1264,10 +1271,10 @@
         <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>87</v>
@@ -1293,10 +1300,10 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>89</v>
@@ -1322,10 +1329,10 @@
         <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>110</v>
@@ -1351,10 +1358,10 @@
         <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>122</v>
@@ -1815,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668CAAD9-E0AD-4282-82A9-364E1584459D}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="R7" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1952,10 +1959,10 @@
         <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
         <v>79</v>
@@ -1967,10 +1974,10 @@
         <v>167</v>
       </c>
       <c r="P2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>83</v>
@@ -1979,10 +1986,10 @@
         <v>84</v>
       </c>
       <c r="T2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>85</v>
@@ -2023,10 +2030,10 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M3" t="s">
         <v>79</v>
@@ -2038,10 +2045,10 @@
         <v>167</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>83</v>
@@ -2050,10 +2057,10 @@
         <v>86</v>
       </c>
       <c r="T3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U3" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>87</v>
@@ -2094,10 +2101,10 @@
         <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
         <v>79</v>
@@ -2109,10 +2116,10 @@
         <v>167</v>
       </c>
       <c r="P4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>83</v>
@@ -2121,10 +2128,10 @@
         <v>88</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U4" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>89</v>
@@ -2165,10 +2172,10 @@
         <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
         <v>79</v>
@@ -2180,10 +2187,10 @@
         <v>167</v>
       </c>
       <c r="P5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>83</v>
@@ -2192,10 +2199,10 @@
         <v>88</v>
       </c>
       <c r="T5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U5" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>89</v>
@@ -2236,10 +2243,10 @@
         <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M6" t="s">
         <v>79</v>
@@ -2251,10 +2258,10 @@
         <v>167</v>
       </c>
       <c r="P6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>83</v>
@@ -2263,10 +2270,10 @@
         <v>88</v>
       </c>
       <c r="T6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U6" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>89</v>
@@ -2307,10 +2314,10 @@
         <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M7" t="s">
         <v>103</v>
@@ -2322,10 +2329,10 @@
         <v>107</v>
       </c>
       <c r="P7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>108</v>
@@ -2334,10 +2341,10 @@
         <v>109</v>
       </c>
       <c r="T7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>110</v>
@@ -2378,10 +2385,10 @@
         <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
         <v>103</v>
@@ -2393,10 +2400,10 @@
         <v>107</v>
       </c>
       <c r="P8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>108</v>
@@ -2405,10 +2412,10 @@
         <v>109</v>
       </c>
       <c r="T8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>110</v>
@@ -2449,10 +2456,10 @@
         <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
         <v>103</v>
@@ -2464,10 +2471,10 @@
         <v>107</v>
       </c>
       <c r="P9" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q9" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>108</v>
@@ -2476,10 +2483,10 @@
         <v>109</v>
       </c>
       <c r="T9" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U9" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>110</v>
@@ -2520,10 +2527,10 @@
         <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M10" t="s">
         <v>103</v>
@@ -2535,10 +2542,10 @@
         <v>107</v>
       </c>
       <c r="P10" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q10" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>108</v>
@@ -2547,10 +2554,10 @@
         <v>121</v>
       </c>
       <c r="T10" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U10" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>122</v>
@@ -2591,10 +2598,10 @@
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L11" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M11" t="s">
         <v>103</v>
@@ -2606,10 +2613,10 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q11" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>108</v>
@@ -2618,10 +2625,10 @@
         <v>121</v>
       </c>
       <c r="T11" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U11" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>122</v>
@@ -2662,10 +2669,10 @@
         <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M12" t="s">
         <v>103</v>
@@ -2677,10 +2684,10 @@
         <v>107</v>
       </c>
       <c r="P12" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q12" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>108</v>
@@ -2689,10 +2696,10 @@
         <v>121</v>
       </c>
       <c r="T12" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="U12" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>122</v>
@@ -2719,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E0C55F-F2E3-44F6-91B1-E3C786616A20}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D34" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>

--- a/QTNext/src/test/resources/Automation Test Sample.xlsx
+++ b/QTNext/src/test/resources/Automation Test Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seshu\git\QTNext\QTNext\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F223EF79-EAE7-48AD-A897-B25C3C6B6C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A9ABA9-AA2D-4162-8A03-7B9654945002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{B2F200D8-E270-4BCF-B583-C9AE4D01EF03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{B2F200D8-E270-4BCF-B583-C9AE4D01EF03}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject Category" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="278">
   <si>
     <t>Subject Category</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Python Programming</t>
-  </si>
-  <si>
-    <t>D:\Internship\Test Data\Images\QT Next Mock Image.png</t>
   </si>
   <si>
     <t>Rajashekar</t>
@@ -1468,7 +1465,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1478,12 +1475,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1520,72 +1517,72 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="8">
         <v>15</v>
@@ -1611,33 +1608,33 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8">
         <v>10</v>
@@ -1663,33 +1660,33 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="8">
         <v>5</v>
@@ -1715,33 +1712,33 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="8">
         <v>15</v>
@@ -1767,33 +1764,33 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8">
         <v>10</v>
@@ -1819,33 +1816,33 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8">
         <v>5</v>
@@ -1871,33 +1868,33 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G8" s="8">
         <v>15</v>
@@ -1923,33 +1920,33 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8">
         <v>10</v>
@@ -1975,33 +1972,33 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="8">
         <v>5</v>
@@ -2027,33 +2024,33 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G11" s="8">
         <v>15</v>
@@ -2079,33 +2076,33 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="8">
         <v>10</v>
@@ -2131,33 +2128,33 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="8">
         <v>5</v>
@@ -2183,33 +2180,33 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G14" s="8">
         <v>15</v>
@@ -2235,33 +2232,33 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="8">
         <v>10</v>
@@ -2287,33 +2284,33 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="8">
         <v>5</v>
@@ -2339,33 +2336,33 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G17" s="8">
         <v>15</v>
@@ -2391,33 +2388,33 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="8">
         <v>10</v>
@@ -2443,33 +2440,33 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="8">
         <v>5</v>
@@ -2495,33 +2492,33 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G20" s="8">
         <v>6</v>
@@ -2547,33 +2544,33 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="8">
         <v>4</v>
@@ -2599,33 +2596,33 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="8">
         <v>2</v>
@@ -2651,33 +2648,33 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G23" s="8">
         <v>6</v>
@@ -2703,33 +2700,33 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
@@ -2755,33 +2752,33 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="8">
         <v>2</v>
@@ -2807,33 +2804,33 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G26" s="8">
         <v>6</v>
@@ -2859,33 +2856,33 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="8">
         <v>4</v>
@@ -2911,33 +2908,33 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="8">
         <v>2</v>
@@ -2963,33 +2960,33 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="8">
         <v>12</v>
@@ -3015,33 +3012,33 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="8">
         <v>8</v>
@@ -3067,33 +3064,33 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="8">
         <v>4</v>
@@ -3119,33 +3116,33 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="8">
         <v>6</v>
@@ -3171,33 +3168,33 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F33" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="8">
         <v>4</v>
@@ -3223,33 +3220,33 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="8">
         <v>2</v>
@@ -3275,33 +3272,33 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="8">
         <v>15</v>
@@ -3327,33 +3324,33 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="8">
         <v>10</v>
@@ -3379,33 +3376,33 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="8">
         <v>5</v>
@@ -3431,33 +3428,33 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="9">
         <v>12</v>
@@ -3483,33 +3480,33 @@
         <v>0</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="8">
         <v>8</v>
@@ -3535,33 +3532,33 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D40" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3587,33 +3584,33 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="8">
         <v>12</v>
@@ -3639,30 +3636,30 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="F42" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="8">
         <v>8</v>
@@ -3688,30 +3685,30 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="8">
         <v>4</v>
@@ -3737,30 +3734,30 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" s="8">
         <v>6</v>
@@ -3786,30 +3783,30 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" s="8">
         <v>4</v>
@@ -3835,30 +3832,30 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="8">
         <v>2</v>
@@ -3884,30 +3881,30 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" s="8">
         <v>6</v>
@@ -3933,30 +3930,30 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3982,30 +3979,30 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" s="8">
         <v>2</v>
@@ -4031,30 +4028,30 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" s="8">
         <v>12</v>
@@ -4080,30 +4077,30 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D51" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="8">
         <v>8</v>
@@ -4129,30 +4126,30 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
@@ -4178,30 +4175,30 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" s="8">
         <v>6</v>
@@ -4227,30 +4224,30 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" s="8">
         <v>4</v>
@@ -4276,30 +4273,30 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" s="8">
         <v>2</v>
@@ -4325,30 +4322,30 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" s="8">
         <v>6</v>
@@ -4374,30 +4371,30 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" s="8">
         <v>4</v>
@@ -4423,30 +4420,30 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" s="8">
         <v>2</v>
@@ -4472,30 +4469,30 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="8">
         <v>6</v>
@@ -4521,30 +4518,30 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
@@ -4570,30 +4567,30 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D61" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G61" s="8">
         <v>2</v>
@@ -4619,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4659,352 +4656,352 @@
   <sheetData>
     <row r="1" spans="1:16" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>209</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="26">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="26">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" s="26">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L2" s="26">
         <v>24.23</v>
       </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
         <v>208</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>209</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>210</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="I3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="K3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="M3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="M3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="O3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="G4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="I4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="K4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="M4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>224</v>
-      </c>
       <c r="O4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="105.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="G5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="I5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="K5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="M5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="M5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N5" s="25" t="s">
+      <c r="O5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="O5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="I6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="K6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="23" t="s">
+      <c r="M6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N6" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="M6" t="s">
-        <v>174</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>238</v>
-      </c>
       <c r="O6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="I7" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="K7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="M7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="M7" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="25" t="s">
+      <c r="O7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="O7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -5053,92 +5050,92 @@
         <v>3</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>255</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>257</v>
       </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="28" t="s">
         <v>258</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -5147,10 +5144,10 @@
         <v>15</v>
       </c>
       <c r="K3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5163,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1144A03-3A4E-4204-8D51-B04F8AF4B93A}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5187,90 +5184,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
         <v>263</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
         <v>264</v>
       </c>
-      <c r="C1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
         <v>265</v>
       </c>
-      <c r="F1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>266</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>267</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>268</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>269</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>270</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>271</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>272</v>
-      </c>
-      <c r="N1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
         <v>274</v>
       </c>
-      <c r="C2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
         <v>275</v>
       </c>
-      <c r="E2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" t="s">
         <v>276</v>
       </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" t="s">
-        <v>277</v>
-      </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5301,18 +5298,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5323,29 +5320,29 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5379,42 +5376,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -5428,16 +5425,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5471,22 +5468,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5498,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386CB17-0146-4CFF-B8CE-BD8A5517369E}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5541,28 +5538,28 @@
     </row>
     <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -5576,19 +5573,19 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5631,42 +5628,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -5680,19 +5677,19 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -5722,118 +5719,118 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
       <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -5847,22 +5844,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -5876,22 +5873,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5922,212 +5919,212 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
       <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
       <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>171</v>
-      </c>
-      <c r="K1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -6141,28 +6138,28 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -6176,28 +6173,28 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" t="s">
         <v>112</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -6211,28 +6208,28 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6246,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" t="s">
         <v>124</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6281,28 +6278,28 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
@@ -6316,28 +6313,28 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" t="s">
         <v>131</v>
       </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6385,437 +6382,437 @@
   <sheetData>
     <row r="1" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>140</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>143</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>144</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" t="s">
         <v>147</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" t="s">
         <v>151</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>152</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" t="s">
         <v>155</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U2" t="s">
+        <v>173</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T2" t="s">
-        <v>174</v>
-      </c>
-      <c r="U2" t="s">
-        <v>174</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L3" t="s">
-        <v>174</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P3" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="T3" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" t="s">
-        <v>174</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="W3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
         <v>80</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K4" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>174</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4" t="s">
+        <v>173</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T4" t="s">
-        <v>174</v>
-      </c>
-      <c r="U4" t="s">
-        <v>174</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="W4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="Y4" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
       <c r="Z4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P5" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>174</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="S5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" t="s">
+        <v>173</v>
+      </c>
+      <c r="U5" t="s">
+        <v>173</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T5" t="s">
-        <v>174</v>
-      </c>
-      <c r="U5" t="s">
-        <v>174</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="W5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="Y5" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" t="s">
-        <v>99</v>
-      </c>
       <c r="Z5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>173</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" t="s">
-        <v>174</v>
-      </c>
-      <c r="M6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P6" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>174</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="S6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T6" t="s">
-        <v>174</v>
-      </c>
-      <c r="U6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="W6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="Y6" t="s">
         <v>101</v>
       </c>
-      <c r="Y6" t="s">
-        <v>102</v>
-      </c>
       <c r="Z6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
@@ -6829,64 +6826,64 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M7" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>173</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>174</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" t="s">
+        <v>173</v>
+      </c>
+      <c r="U7" t="s">
+        <v>173</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T7" t="s">
-        <v>174</v>
-      </c>
-      <c r="U7" t="s">
-        <v>174</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="W7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
@@ -6900,64 +6897,64 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>173</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P8" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>174</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U8" t="s">
+        <v>173</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T8" t="s">
-        <v>174</v>
-      </c>
-      <c r="U8" t="s">
-        <v>174</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="Y8" t="s">
         <v>112</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
@@ -6971,64 +6968,64 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L9" t="s">
-        <v>174</v>
-      </c>
-      <c r="M9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P9" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>174</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" t="s">
+        <v>173</v>
+      </c>
+      <c r="U9" t="s">
+        <v>173</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U9" t="s">
-        <v>174</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="W9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="Y9" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
@@ -7042,64 +7039,64 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>173</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P10" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>174</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="S10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T10" t="s">
+        <v>173</v>
+      </c>
+      <c r="U10" t="s">
+        <v>173</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T10" t="s">
-        <v>174</v>
-      </c>
-      <c r="U10" t="s">
-        <v>174</v>
-      </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="Y10" t="s">
         <v>124</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
@@ -7113,64 +7110,64 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K11" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" t="s">
-        <v>174</v>
-      </c>
-      <c r="M11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>173</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P11" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>174</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="S11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T11" t="s">
+        <v>173</v>
+      </c>
+      <c r="U11" t="s">
+        <v>173</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T11" t="s">
-        <v>174</v>
-      </c>
-      <c r="U11" t="s">
-        <v>174</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="W11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="Y11" t="s">
         <v>128</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
@@ -7184,64 +7181,64 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" t="s">
+        <v>173</v>
+      </c>
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K12" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" t="s">
-        <v>174</v>
-      </c>
-      <c r="M12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P12" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>174</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="S12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T12" t="s">
+        <v>173</v>
+      </c>
+      <c r="U12" t="s">
+        <v>173</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T12" t="s">
-        <v>174</v>
-      </c>
-      <c r="U12" t="s">
-        <v>174</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="W12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y12" t="s">
         <v>131</v>
       </c>
-      <c r="X12" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Z12" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
